--- a/ML/ML_ready/second_try.xlsx
+++ b/ML/ML_ready/second_try.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CJ2"/>
+  <dimension ref="A1:CN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_FEB.x</t>
+          <t>2019_JUNE.x</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -795,7 +795,27 @@
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>2019_FEB.y</t>
+          <t>2019_FEB</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2019_MARCH</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2019_APRIL</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2019_MAY</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2019_JUNE.y</t>
         </is>
       </c>
     </row>
@@ -806,7 +826,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>7076</v>
+        <v>13155</v>
       </c>
       <c r="AU2">
         <v>6758</v>
@@ -924,6 +944,15 @@
       </c>
       <c r="CJ2">
         <v>7076</v>
+      </c>
+      <c r="CL2">
+        <v>7854</v>
+      </c>
+      <c r="CM2">
+        <v>6439</v>
+      </c>
+      <c r="CN2">
+        <v>13155</v>
       </c>
     </row>
   </sheetData>
